--- a/medicine/Enfance/MilK_(magazine)/MilK_(magazine).xlsx
+++ b/medicine/Enfance/MilK_(magazine)/MilK_(magazine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 MilK est un magazine trimestriel à thématique enfantine, fondé en 2003 par Isis-Colombe Combréas et Karel Balas. C'est un titre français, indépendant, édité par la société MILK SARL.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le magazine MilK a été créé en août 2003 à Paris, France. Il est distribué en France et à l'international. C'est un observatoire des tendances de la mode enfantine et de la famille contemporaine, décalé de la presse parentale et conçu comme un féminin.
 Sa fondatrice est Isis-Colombe Combréas, issue de la télévision : Récré Kids, Pink, Rive droite Rive gauche et Karel Balas, directeur artistique dans la presse féminine (Jalouse).
@@ -544,15 +558,13 @@
           <t>Tirage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Diffusion par numéro : 80 000 ex.
 60 000 exemplaires en France
 20 000 exemplaires à l'étranger
-MilK Decoration
-Le MilK Decoration est un magazine de styles et d'inspirations pour la famille contemporaine. C'est un bimestriel.
-MilK Kid's Collections
-MilK Kids Collections est un magazine présentant les collections enfantines de plus de 150 marques, de la saison à venir. Il paraît deux fois par an.
 </t>
         </is>
       </c>
@@ -578,10 +590,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Tirage</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MilK Decoration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le MilK Decoration est un magazine de styles et d'inspirations pour la famille contemporaine. C'est un bimestriel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MilK_(magazine)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MilK_(magazine)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tirage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MilK Kid's Collections</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MilK Kids Collections est un magazine présentant les collections enfantines de plus de 150 marques, de la saison à venir. Il paraît deux fois par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MilK_(magazine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MilK_(magazine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel de l'édition française
  Portail de la presse écrite   Portail de la mode   Portail de l'enfance                   </t>
